--- a/00硬件/06北京琦安_无锡尚瑞_电气技术有限公司/大额研发请购单--电机MCU.xlsx
+++ b/00硬件/06北京琦安_无锡尚瑞_电气技术有限公司/大额研发请购单--电机MCU.xlsx
@@ -55,9 +55,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t xml:space="preserve">申请原因：                                                                                                                                                                                                                                  </t>
-  </si>
-  <si>
     <t>测试/服务详细要求：（包括委外测试/服务内容、时间、要求等相关描述，可做附件说明）</t>
   </si>
   <si>
@@ -81,6 +78,11 @@
   </si>
   <si>
     <t>江苏兴云动力科技有限公司</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">申请原因：
+VAD01项目驱动适配开发                                                                                                                                                                                                                                  </t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,6 +612,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1124,7 +1129,7 @@
   <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1141,7 +1146,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="51" x14ac:dyDescent="0.15">
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
@@ -1157,7 +1162,7 @@
     <row r="4" spans="2:8" ht="36.75" x14ac:dyDescent="0.15">
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1285,8 +1290,8 @@
       <c r="H15" s="33"/>
     </row>
     <row r="16" spans="2:8" ht="210.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="37" t="s">
-        <v>12</v>
+      <c r="B16" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
@@ -1297,7 +1302,7 @@
     </row>
     <row r="17" spans="2:8" ht="210.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -1308,22 +1313,22 @@
     </row>
     <row r="18" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="40"/>
       <c r="H18" s="41"/>
     </row>
     <row r="19" spans="2:8" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -1343,7 +1348,7 @@
     </row>
     <row r="21" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>

--- a/00硬件/06北京琦安_无锡尚瑞_电气技术有限公司/大额研发请购单--电机MCU.xlsx
+++ b/00硬件/06北京琦安_无锡尚瑞_电气技术有限公司/大额研发请购单--电机MCU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>请购单号:</t>
   </si>
@@ -55,9 +55,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>测试/服务详细要求：（包括委外测试/服务内容、时间、要求等相关描述，可做附件说明）</t>
-  </si>
-  <si>
     <t>部门负责人意见：</t>
   </si>
   <si>
@@ -77,12 +74,60 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">申请原因：
+VAD01项目驱动适配开发 ，需要电机MCU厂家协助完成： 
+分解VAD01项目驱动电机MCU控制器的技术要求；
+根据技术要求制定接口协议；
+更新原控制器内嵌通用CAN协议，并按新接口协议编写代码；
+更新电机控制部分的驻车功能模块；
+模拟测试完成代码功能；
+升级主控制板程序并交付控制器；
+现场配合测试；                                                                                                                                                                                                                   </t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发通讯协议</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次申请</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品软件升级</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次申请</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAD01及能量回收等功能</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业开发人员到现场二次配合调试</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年内后续修改维护费</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值税费</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
     <t>江苏兴云动力科技有限公司</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">申请原因：
-VAD01项目驱动适配开发                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试/服务详细要求：（包括委外测试/服务内容、时间、要求等相关描述，可做附件说明）
+前期沟通确认方案后，具体实施需两周时间，附件是当前已装车硬件。
+</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +139,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +248,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -219,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -312,21 +364,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -454,6 +491,30 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -465,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,33 +602,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -577,44 +611,74 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -833,6 +897,47 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>1219200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1409700</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>1905000</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1122,21 +1227,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="24.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21" style="3" customWidth="1"/>
     <col min="7" max="7" width="17.625" style="3" customWidth="1"/>
@@ -1146,7 +1252,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="51" x14ac:dyDescent="0.15">
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
@@ -1162,7 +1268,7 @@
     <row r="4" spans="2:8" ht="36.75" x14ac:dyDescent="0.15">
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1190,8 +1296,8 @@
       <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="17"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -1201,8 +1307,8 @@
       <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -1212,8 +1318,8 @@
       <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="16"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1254,125 +1360,232 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
+      <c r="B12" s="28">
+        <v>1</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>9000</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
+      <c r="B13" s="28">
+        <v>2</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="30">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16" spans="2:8" ht="210.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-    </row>
-    <row r="17" spans="2:8" ht="210.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="37" t="s">
+      <c r="B14" s="28">
+        <v>3</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="29">
+        <v>1</v>
+      </c>
+      <c r="F14" s="30">
+        <v>9000</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="28">
+        <v>4</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="29">
+        <v>2</v>
+      </c>
+      <c r="F15" s="30">
+        <v>10000</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="28">
+        <v>5</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="29">
+        <v>1</v>
+      </c>
+      <c r="F16" s="30">
+        <v>6000</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="28">
+        <v>6</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="34">
+        <v>6290</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="224.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
+    </row>
+    <row r="19" spans="2:8" ht="210.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
+    </row>
+    <row r="20" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
-    </row>
-    <row r="18" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="37" t="s">
+      <c r="C20" s="36"/>
+      <c r="D20" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39" t="s">
+      <c r="E20" s="36"/>
+      <c r="F20" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="40" t="s">
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="2:8" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-    </row>
-    <row r="19" spans="2:8" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="42" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="14"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
-    </row>
-    <row r="20" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="14"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="34"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B19:H19"/>
+  <mergeCells count="10">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B21:H21"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="D12:D17"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.59027777777777801" right="0.15625" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" scale="50" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="文档" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>1219200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1409700</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>1905000</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="文档" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
